--- a/Session 2/employee_data.xlsx
+++ b/Session 2/employee_data.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bnsla\OneDrive\Desktop\campus x excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vinaymittal/Monash/Summer_Vacation/GitHub/Learn_excel/Session 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7986AAF1-7B64-448D-A2A8-5125933A1136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C0BF27-1DBD-DA4C-97C4-BCB3040D6A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{CE201E1D-A128-4A0C-89E4-587B1E9F5181}"/>
+    <workbookView xWindow="3440" yWindow="500" windowWidth="28800" windowHeight="16260" activeTab="1" xr2:uid="{CE201E1D-A128-4A0C-89E4-587B1E9F5181}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
-    <sheet name="Managers" sheetId="2" r:id="rId2"/>
+    <sheet name="Practice" sheetId="3" r:id="rId2"/>
+    <sheet name="Managers" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,8 +37,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t>Employee ID</t>
   </si>
@@ -97,13 +120,31 @@
   </si>
   <si>
     <t>James Wilson</t>
+  </si>
+  <si>
+    <t>Manager Name(Using VlookUP)</t>
+  </si>
+  <si>
+    <t>Match</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Manager Index(Using  Match)</t>
+  </si>
+  <si>
+    <t>Manager Colum Index</t>
+  </si>
+  <si>
+    <t>Manager Name (Using Index Match)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +158,13 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -140,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -148,11 +196,93 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="14">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -163,6 +293,43 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{512CDCCE-625E-564D-8654-7AA034DC950A}" name="Employee" displayName="Employee" ref="A1:I6" totalsRowShown="0" headerRowDxfId="7" dataDxfId="8">
+  <autoFilter ref="A1:I6" xr:uid="{512CDCCE-625E-564D-8654-7AA034DC950A}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{B4E0E21F-BC7E-E94D-A24E-2E21D78DF5C3}" name="Employee ID" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{101F10A2-F5E7-D64A-A007-5FBC97261641}" name="Name" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{CDEA5A86-B878-7B41-9B1E-8CB2CD944232}" name="Department" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{CE017E38-24B8-2B46-BE83-246E614B5A43}" name="Salary" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{64D0E40B-5C5F-8F48-BFEE-F3E0D7C62A9A}" name="Manager ID" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{AFA53F20-88E5-3A42-8211-A0CE1918F0EC}" name="Manager Name(Using VlookUP)">
+      <calculatedColumnFormula>VLOOKUP(E2,Managers!$A$2:$B$5,2,0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{6260F916-F747-E247-9643-A1E0FBBEB284}" name="Manager Index(Using  Match)" dataDxfId="2">
+      <calculatedColumnFormula>MATCH(Employee[[#This Row],[Manager ID]],Manger[Manager ID],0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{6AF276C7-63ED-8447-B539-C0C14AB6B3D9}" name="Manager Colum Index" dataDxfId="1">
+      <calculatedColumnFormula>MATCH("Manager Name", Manger[#Headers], 0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{89241DA0-E434-0C40-90CD-3F9B83F3EF5F}" name="Manager Name (Using Index Match)" dataDxfId="0">
+      <calculatedColumnFormula array="1">INDEX(Manger[],Employee[[#This Row],[Manager Index(Using  Match)]],Employee[[#This Row],[Manager Colum Index]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{80840E5D-4A06-2343-8469-943F185D1B2E}" name="Manger" displayName="Manger" ref="A1:B5" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:B5" xr:uid="{80840E5D-4A06-2343-8469-943F185D1B2E}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{E996672D-DF39-1C42-964F-28E66738CC8F}" name="Manager ID" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{9DC0B772-DA45-374F-BC84-0935E97785F5}" name="Manager Name" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -485,19 +652,19 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.08984375" customWidth="1"/>
-    <col min="2" max="2" width="11.7265625" customWidth="1"/>
-    <col min="3" max="3" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -514,7 +681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>101</v>
       </c>
@@ -531,7 +698,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>102</v>
       </c>
@@ -548,7 +715,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>103</v>
       </c>
@@ -565,7 +732,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>104</v>
       </c>
@@ -582,7 +749,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>105</v>
       </c>
@@ -605,28 +772,274 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A6DE55-1E02-4BAB-B539-6F032C7E6544}">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A161F761-FC1D-4D4F-A265-E75697BD5D83}">
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B5"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.90625" customWidth="1"/>
-    <col min="2" max="2" width="15.6328125" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="27" customWidth="1"/>
+    <col min="7" max="9" width="24" customWidth="1"/>
+    <col min="12" max="12" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>101</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2">
+        <v>50000</v>
+      </c>
+      <c r="E2" s="2">
+        <v>201</v>
+      </c>
+      <c r="F2" s="3" t="str">
+        <f>VLOOKUP(E2,Managers!$A$2:$B$5,2,0)</f>
+        <v>Sarah Adams</v>
+      </c>
+      <c r="G2">
+        <f>MATCH(Employee[[#This Row],[Manager ID]],Manger[Manager ID],0)</f>
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <f>MATCH("Manager Name", Manger[#Headers], 0)</f>
+        <v>2</v>
+      </c>
+      <c r="I2" s="2" t="str" cm="1">
+        <f t="array" ref="I2">INDEX(Manger[],Employee[[#This Row],[Manager Index(Using  Match)]],Employee[[#This Row],[Manager Colum Index]])</f>
+        <v>Sarah Adams</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2">
+        <v>201</v>
+      </c>
+      <c r="M2">
+        <f>MATCH(L2,E2:E6, 0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>102</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2">
+        <v>60000</v>
+      </c>
+      <c r="E3" s="2">
+        <v>202</v>
+      </c>
+      <c r="F3" t="str">
+        <f>VLOOKUP(E3,Managers!$A$2:$B$5,2,0)</f>
+        <v>Michael Brown</v>
+      </c>
+      <c r="G3">
+        <f>MATCH(Employee[[#This Row],[Manager ID]],Manger[Manager ID],0)</f>
+        <v>2</v>
+      </c>
+      <c r="H3" s="2">
+        <f>MATCH("Manager Name", Manger[#Headers], 0)</f>
+        <v>2</v>
+      </c>
+      <c r="I3" s="2" t="str" cm="1">
+        <f t="array" ref="I3">INDEX(Manger[],Employee[[#This Row],[Manager Index(Using  Match)]],Employee[[#This Row],[Manager Colum Index]])</f>
+        <v>Michael Brown</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" t="str">
+        <f>INDEX(Managers!A2:B5,2, 2)</f>
+        <v>Michael Brown</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>103</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2">
+        <v>55000</v>
+      </c>
+      <c r="E4" s="2">
+        <v>203</v>
+      </c>
+      <c r="F4" t="str">
+        <f>VLOOKUP(E4,Managers!$A$2:$B$5,2,0)</f>
+        <v>Lisa Chang</v>
+      </c>
+      <c r="G4">
+        <f>MATCH(Employee[[#This Row],[Manager ID]],Manger[Manager ID],0)</f>
+        <v>3</v>
+      </c>
+      <c r="H4" s="2">
+        <f>MATCH("Manager Name", Manger[#Headers], 0)</f>
+        <v>2</v>
+      </c>
+      <c r="I4" s="2" t="str" cm="1">
+        <f t="array" ref="I4">INDEX(Manger[],Employee[[#This Row],[Manager Index(Using  Match)]],Employee[[#This Row],[Manager Colum Index]])</f>
+        <v>Lisa Chang</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>104</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2">
+        <v>58000</v>
+      </c>
+      <c r="E5" s="2">
+        <v>201</v>
+      </c>
+      <c r="F5" t="str">
+        <f>VLOOKUP(E5,Managers!$A$2:$B$5,2,0)</f>
+        <v>Sarah Adams</v>
+      </c>
+      <c r="G5">
+        <f>MATCH(Employee[[#This Row],[Manager ID]],Manger[Manager ID],0)</f>
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <f>MATCH("Manager Name", Manger[#Headers], 0)</f>
+        <v>2</v>
+      </c>
+      <c r="I5" s="2" t="str" cm="1">
+        <f t="array" ref="I5">INDEX(Manger[],Employee[[#This Row],[Manager Index(Using  Match)]],Employee[[#This Row],[Manager Colum Index]])</f>
+        <v>Sarah Adams</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>105</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2">
+        <v>52000</v>
+      </c>
+      <c r="E6" s="2">
+        <v>204</v>
+      </c>
+      <c r="F6" t="str">
+        <f>VLOOKUP(E6,Managers!$A$2:$B$5,2,0)</f>
+        <v>James Wilson</v>
+      </c>
+      <c r="G6" s="2">
+        <f>MATCH(Employee[[#This Row],[Manager ID]],Manger[Manager ID],0)</f>
+        <v>4</v>
+      </c>
+      <c r="H6" s="2">
+        <f>MATCH("Manager Name", Manger[#Headers], 0)</f>
+        <v>2</v>
+      </c>
+      <c r="I6" s="2" t="str" cm="1">
+        <f t="array" ref="I6">INDEX(Manger[],Employee[[#This Row],[Manager Index(Using  Match)]],Employee[[#This Row],[Manager Colum Index]])</f>
+        <v>James Wilson</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A6DE55-1E02-4BAB-B539-6F032C7E6544}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="E1" t="str" cm="1">
+        <f t="array" ref="E1:F1">Manger[#Headers]</f>
+        <v>Manager ID</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Manager Name</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>201</v>
       </c>
@@ -634,7 +1047,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>202</v>
       </c>
@@ -642,7 +1055,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>203</v>
       </c>
@@ -650,7 +1063,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>204</v>
       </c>
@@ -660,5 +1073,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>